--- a/数据整理/stocks/A股/创业板/301071-力量钻石.xlsx
+++ b/数据整理/stocks/A股/创业板/301071-力量钻石.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,13 +1509,749 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5645</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5245</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4811</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3793</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015254</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>25</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>5.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/301071-力量钻石.xlsx
+++ b/数据整理/stocks/A股/创业板/301071-力量钻石.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,1003 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161040</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4215</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010963</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银周期动力混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9980</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005136</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安幸福生活混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8167</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005825</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信智能驱动股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7397</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009914</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国成长动力混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3478</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012477</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国匠心精选12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>64.18</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3323</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000940</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2488</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>310388</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信消费增长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1538</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1377</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>970023</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天风天盈一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>39.47</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1051</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>100039</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国通胀通缩主题混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>81.15</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1015</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003493</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>25.97</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0870</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003655</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>信达澳银新财富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11.86</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>25.86</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0842</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002293</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方益和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>83.59</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003512</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>25.97</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010427</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>兴银策略智选混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0272</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001734</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>85.72</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001735</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略成长灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>85.72</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>012478</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国匠心精选12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>64.18</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005492</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>农银汇理研究驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>62.76</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010428</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>兴银策略智选混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006644</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>弘毅远方消费升级混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>81.31</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001730</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>兴银大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>162211</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>泰达宏利品质生活混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.84</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2198,64 +1260,1002 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8167</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7397</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3323</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D2" t="n">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.84</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/301071-力量钻石.xlsx
+++ b/数据整理/stocks/A股/创业板/301071-力量钻石.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>3.33</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>25</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>5.84</v>
       </c>
     </row>
@@ -515,6 +532,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8436</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5213</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3631</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015254</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1254,7 +1783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/301071-力量钻石.xlsx
+++ b/数据整理/stocks/A股/创业板/301071-力量钻石.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>3.33</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>25</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.84</v>
       </c>
     </row>
@@ -532,6 +549,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6799</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1043,7 +1344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1783,7 +2084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
